--- a/src/main/resources/static/excel/import.xlsx
+++ b/src/main/resources/static/excel/import.xlsx
@@ -16,49 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>贵州中烟工业有限责任公司科技项目评审专家工作量统计表</t>
+  </si>
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>评审类别</t>
+  </si>
+  <si>
+    <t>评审时间</t>
+  </si>
+  <si>
+    <t>专家单位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>项目名称</t>
+    <t>专家类别</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>评审类别</t>
+    <t>专家姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>评审时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术专家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审费用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（元）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>经管专家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵州中烟工业有限责任公司科技项目评审专家工作量统计表</t>
+    <t>评审费用（元）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +91,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,32 +168,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -526,82 +516,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="9">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/import.xlsx
+++ b/src/main/resources/static/excel/import.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="14808" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="科技项目评审统计表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>贵州中烟工业有限责任公司科技项目评审专家工作量统计表</t>
   </si>
@@ -33,27 +34,107 @@
     <t>评审时间</t>
   </si>
   <si>
+    <t>专家类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审费用（元）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料供应中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵阳卷烟厂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵义卷烟厂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕节卷烟厂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵定卷烟厂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜仁卷烟厂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴义烟叶储运站</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项评审</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查评价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更评审</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销评审</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结题评审</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司本部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>专家单位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>专家类别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专家姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审费用（元）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术专家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经管专家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +179,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,28 +225,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -162,6 +246,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -172,19 +267,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,61 +635,69 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="30.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -590,6 +714,30 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet4!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet4!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1 E4:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet4!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1 F4:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -599,7 +747,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -610,11 +758,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>